--- a/Module 1 - Data Collection/1 - Collecting Data Using APIs/job-postings-technologies.xlsx
+++ b/Module 1 - Data Collection/1 - Collecting Data Using APIs/job-postings-technologies.xlsx
@@ -1,34 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanse\Downloads\IBM Data Analyst Capstone Project\IBM-Data-Analyst-Capstone-Project\Module 1 - Data Collection\1 - Collecting Data Using APIs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6130DE7A-EC97-405F-BBC6-C7497DA3492A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Number of jobs postings</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Scala</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>MySqL</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Jobs postings</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,82 +110,1729 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[job-postings-technologies.xlsx]Hoja1!TablaDinámica2</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Job postings by Technology</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-4BF9-4D02-8B2D-11D904A1250C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4BF9-4D02-8B2D-11D904A1250C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-4BF9-4D02-8B2D-11D904A1250C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4BF9-4D02-8B2D-11D904A1250C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$4:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Oracle</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JavaScript</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C#</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>C++</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SQL Server</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MongoDB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Scala</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PostgreSQL</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MySqL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$4:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1173</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BF9-4D02-8B2D-11D904A1250C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="2114410287"/>
+        <c:axId val="2114409455"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2114410287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2114409455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2114409455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2114410287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4568DCB4-9ED8-2DDC-4E9C-FDD501E4ED60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Hansel Rodriguez" refreshedDate="44839.448578703705" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{FDC2D9F6-420E-4C6D-BF87-C490538D5E84}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B13" sheet="Sheet"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Technology" numFmtId="0">
+      <sharedItems count="12">
+        <s v="C"/>
+        <s v="C++"/>
+        <s v="C#"/>
+        <s v="Java"/>
+        <s v="JavaScript"/>
+        <s v="Python"/>
+        <s v="Scala"/>
+        <s v="Oracle"/>
+        <s v="SQL Server"/>
+        <s v="MySqL"/>
+        <s v="PostgreSQL"/>
+        <s v="MongoDB"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Number of jobs postings" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="13498"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
+  <r>
+    <x v="0"/>
+    <n v="13498"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="305"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="333"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2609"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="355"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1173"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="784"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="174"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E04C0A26-7EEF-41BB-B1EE-3EBD54F49BF4}" name="TablaDinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="13">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Jobs postings" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="12">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,148 +2119,252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F913D30-D032-472C-BC4B-228D1755D7FC}">
+  <dimension ref="A3:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>13498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>19524</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Number of jobs postings</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>13498</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C++</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>305</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C#</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>333</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>2609</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>JavaScript</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>355</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>1173</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Scala</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>33</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>784</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SQL Server</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>250</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MySqL</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PostgreSQL</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
         <v>10</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MongoDB</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
         <v>174</v>
       </c>
     </row>
